--- a/bots/crawl_ch/output/vegi_coop_2023-02-09.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O469"/>
+  <dimension ref="A1:O470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1272,13 +1272,13 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Fairtrade Passionsfrucht ca. 200g 3.20 Schweizer Franken</t>
+          <t>Fairtrade Passionsfrucht ca. 200g - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Betty Bossi Koriander 1 Bund 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Koriander 1 Bund - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4344,165 +4344,161 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5894619</t>
+          <t>6650479</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Süsskartoffeln Batati ca. 1kg</t>
+          <t>Datteln Medjool</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/suesskartoffeln-batati-ca/p/5894619</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/datteln-medjool/p/6650479</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>6.95/1kg</t>
+          <t>0.77/100g</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Süsskartoffeln Batati ca. 1kg 6.95 Schweizer Franken</t>
+          <t>Datteln Medjool 50% Aktion 5.75 Schweizer Franken statt 11.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6471085</t>
+          <t>5894619</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Broccoli ca. 450g</t>
+          <t>Süsskartoffeln Batati ca. 1kg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-broccoli-ca/p/6471085</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/suesskartoffeln-batati-ca/p/5894619</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>6.95/1kg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Broccoli ca. 450g 2.60 Schweizer Franken</t>
+          <t>Süsskartoffeln Batati ca. 1kg 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6086635</t>
+          <t>6471085</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Champignons weiss</t>
+          <t>Naturaplan Bio Broccoli ca. 450g</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-champignons-weiss/p/6086635</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-broccoli-ca/p/6471085</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E62" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4511,12 +4507,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.69/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4526,7 +4522,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4536,39 +4532,39 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Champignons weiss 3.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Broccoli ca. 450g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6495966</t>
+          <t>6086635</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Prix Garantie Knollensellerie ca. 800g</t>
+          <t>Naturaplan Bio Champignons weiss</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/prix-garantie-knollensellerie-ca/p/6495966</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-champignons-weiss/p/6086635</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E63" t="n">
         <v>4.5</v>
@@ -4580,12 +4576,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.27/100g</t>
+          <t>1.69/100g</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4595,7 +4591,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4605,148 +4601,152 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Prix Garantie Knollensellerie ca. 800g 2.15 Schweizer Franken</t>
+          <t>Naturaplan Bio Champignons weiss 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3090320</t>
+          <t>6495966</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mandarinen ca. 1kg</t>
+          <t>Prix Garantie Knollensellerie ca. 800g</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/mandarinen-ca/p/3090320</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/prix-garantie-knollensellerie-ca/p/6495966</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2.80/1kg</t>
+          <t>0.27/100g</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Mandarinen ca. 1kg 2.80 Schweizer Franken</t>
+          <t>Prix Garantie Knollensellerie ca. 800g 2.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6650479</t>
+          <t>3090320</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Datteln Medjool</t>
+          <t>Mandarinen ca. 1kg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/datteln-medjool/p/6650479</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/mandarinen-ca/p/3090320</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.77/100g</t>
+          <t>2.80/1kg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Datteln Medjool 50% Aktion 5.75 Schweizer Franken statt 11.50 Schweizer Franken</t>
+          <t>Mandarinen ca. 1kg 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7644,31 +7644,29 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3388907</t>
+          <t>7080756</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Randensalat</t>
+          <t>Primagusto Kiwi grün 1 Stück</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-naturaplan-bio-randensalat/p/3388907</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>41</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/primagusto-kiwi-gruen-1-stueck/p/7080756</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7677,69 +7675,51 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>0.49/100g</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Randensalat 2.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Kiwi grün 1 Stück 1.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7080756</t>
+          <t>3388907</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Primagusto Kiwi grün 1 Stück</t>
+          <t>Betty Bossi Naturaplan Bio Randensalat</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/primagusto-kiwi-gruen-1-stueck/p/7080756</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-naturaplan-bio-randensalat/p/3388907</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>41</v>
+      </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7748,27 +7728,47 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0.49/100g</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Primagusto Kiwi grün 1 Stück 1.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Randensalat 2.45 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8170,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8450,7 +8450,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9696,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10455,7 +10455,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11866,7 +11866,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12000,7 +12000,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12065,7 +12065,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12207,7 +12207,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12276,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12487,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12767,7 +12767,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13485,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13554,7 +13554,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13619,45 +13619,41 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>4981397</t>
+          <t>6540254</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Betty Bossi Asian Wok Shanghai</t>
+          <t>Chicoree mix</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-asian-wok-shanghai/p/4981397</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13667,7 +13663,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -13677,190 +13673,194 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Betty Bossi Asian Wok Shanghai 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Chicoree mix 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>6324870</t>
+          <t>3091019</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Bio Lauch grün ca. 500g</t>
+          <t>Melone Galia 1 Stück</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/bio-lauch-gruen-ca/p/6324870</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/melone-galia-1-stueck/p/3091019</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E196" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>4.25/1ST</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Bio Lauch grün ca. 500g 3.50 Schweizer Franken</t>
+          <t>Melone Galia 1 Stück 4.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3091019</t>
+          <t>4981397</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Melone Galia 1 Stück</t>
+          <t>Betty Bossi Asian Wok Shanghai</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/melone-galia-1-stueck/p/3091019</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-asian-wok-shanghai/p/4981397</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E197" t="n">
-        <v>4</v>
-      </c>
-      <c r="F197" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>4.25/1ST</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Melone Galia 1 Stück 4.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N197" t="inlineStr"/>
+          <t>Betty Bossi Asian Wok Shanghai 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6540254</t>
+          <t>6324870</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Chicoree mix</t>
+          <t>Bio Lauch grün ca. 500g</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/bio-lauch-gruen-ca/p/6324870</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E198" t="n">
-        <v>5</v>
-      </c>
-      <c r="F198" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -13880,18 +13880,18 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Chicoree mix 2.95 Schweizer Franken</t>
+          <t>Bio Lauch grün ca. 500g 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14029,7 +14029,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14248,7 +14248,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14390,7 +14390,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14532,7 +14532,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14670,7 +14670,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14812,7 +14812,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14859,7 +14859,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15001,7 +15001,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15070,7 +15070,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15139,7 +15139,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15212,7 +15212,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15346,7 +15346,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15687,7 +15687,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15898,7 +15898,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16107,7 +16107,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16180,7 +16180,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16541,7 +16541,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16594,7 +16594,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16663,7 +16663,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16870,7 +16870,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -16939,7 +16939,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17008,7 +17008,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17708,7 +17708,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17915,7 +17915,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18201,7 +18201,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18404,7 +18404,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18469,7 +18469,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18611,7 +18611,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18684,7 +18684,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18749,7 +18749,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18818,7 +18818,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19029,7 +19029,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19171,7 +19171,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19244,7 +19244,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19376,7 +19376,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19445,7 +19445,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19664,7 +19664,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19729,7 +19729,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -19798,29 +19798,31 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>7002845</t>
+          <t>4513438</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse</t>
+          <t>Wakame Salat mit Algen</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/7002845</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/wakame-salat-mit-algen/p/4513438</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>23</v>
+      </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
@@ -19830,76 +19832,74 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>1.58/1kg</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N284" t="inlineStr"/>
+          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>3090222</t>
+          <t>7002845</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kochäpfel</t>
+          <t>Kartoffeln rote Linie IP-Suisse</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-kochaepfel/p/3090222</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/7002845</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="n">
-        <v>5</v>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>4.40/1kg</t>
+          <t>1.58/1kg</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -19909,7 +19909,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -19919,87 +19919,87 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kochäpfel 6.60 Schweizer Franken</t>
+          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>4513438</t>
+          <t>3090222</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen</t>
+          <t>Naturaplan Bio Kochäpfel</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/wakame-salat-mit-algen/p/4513438</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-kochaepfel/p/3090222</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
       </c>
-      <c r="F286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>3.16/100g</t>
+          <t>4.40/1kg</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kochäpfel 6.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20139,7 +20139,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20208,7 +20208,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20277,7 +20277,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20350,7 +20350,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20419,7 +20419,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20553,7 +20553,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20622,7 +20622,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20760,7 +20760,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20833,7 +20833,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20898,7 +20898,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -20963,7 +20963,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21036,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21103,7 +21103,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21176,45 +21176,45 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>5692284</t>
+          <t>6787689</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Délicorn vegan Burger</t>
+          <t>Yolo Cold Slices Nature</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-vegan-burger/p/5692284</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-nature/p/6787689</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E304" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21234,12 +21234,12 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Délicorn vegan Burger 3.95 Schweizer Franken</t>
+          <t>Yolo Cold Slices Nature 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -21249,45 +21249,45 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6787689</t>
+          <t>6717925</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Nature</t>
+          <t>Naturaplan Bio Saisonbirnen ca. 750g</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-nature/p/6787689</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-saisonbirnen-ca/p/6717925</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E305" t="n">
         <v>2.5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>4.00/100g</t>
+          <t>0.49/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21297,7 +21297,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21307,46 +21307,42 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Nature 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Saisonbirnen ca. 750g 26% Aktion 3.70 Schweizer Franken statt 5.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6717925</t>
+          <t>5692284</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonbirnen ca. 750g</t>
+          <t>Délicorn vegan Burger</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-saisonbirnen-ca/p/6717925</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-vegan-burger/p/5692284</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E306" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -21355,12 +21351,12 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>0.49/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21370,7 +21366,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21380,39 +21376,43 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonbirnen ca. 750g 26% Aktion 3.70 Schweizer Franken statt 5.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr"/>
+          <t>Délicorn vegan Burger 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6649013</t>
+          <t>4542934</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-maissalat/p/6649013</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-mungbohnen-sprossen/p/4542934</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E307" t="n">
         <v>4.5</v>
@@ -21424,12 +21424,12 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.60/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21449,22 +21449,22 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat 3.20 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21537,28 +21537,28 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>4542934</t>
+          <t>6649013</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen</t>
+          <t>Naturaplan Bio Maissalat</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-mungbohnen-sprossen/p/4542934</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-maissalat/p/6649013</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E309" t="n">
         <v>4.5</v>
@@ -21570,12 +21570,12 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.60/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -21585,7 +21585,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21595,22 +21595,22 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Maissalat 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21675,7 +21675,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21748,7 +21748,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -21882,70 +21882,66 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6638721</t>
+          <t>3091180</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Betty Bossi Wurst-Käsesalat</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-wurst-kaesesalat/p/6638721</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.40/1ST</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Betty Bossi Wurst-Käsesalat 5.60 Schweizer Franken</t>
+          <t>Batavia 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -21955,66 +21951,70 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>3091180</t>
+          <t>6638721</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Betty Bossi Wurst-Käsesalat</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-wurst-kaesesalat/p/6638721</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>5</v>
-      </c>
-      <c r="F315" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2.40/1ST</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Batavia 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Wurst-Käsesalat 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22454,7 +22454,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22527,45 +22527,45 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6798822</t>
+          <t>3090576</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planted Schnitzel</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/planted-schnitzel/p/6798822</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-shiitake-pilze-ca/p/3090576</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E323" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>3.16/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -22585,60 +22585,56 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Planted Schnitzel 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>3090576</t>
+          <t>6798822</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g</t>
+          <t>Planted Schnitzel</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-shiitake-pilze-ca/p/3090576</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/planted-schnitzel/p/6798822</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -22648,7 +22644,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -22658,56 +22654,60 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr"/>
+          <t>Planted Schnitzel 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6650171</t>
+          <t>6810662</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut</t>
+          <t>Yolo Cold Slices Red Pepper</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-red-pepper/p/6810662</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E325" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -22717,7 +22717,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -22727,56 +22727,60 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr"/>
+          <t>Yolo Cold Slices Red Pepper 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6810662</t>
+          <t>6650171</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Red Pepper</t>
+          <t>Naturaplan Bio Rotkraut</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-red-pepper/p/6810662</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>4.00/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -22786,7 +22790,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -22796,22 +22800,18 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Red Pepper 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23099,7 +23099,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23168,7 +23168,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23241,7 +23241,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23314,7 +23314,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -23679,45 +23679,43 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>6647294</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Bio Peperoni Palermo</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
-        </is>
-      </c>
-      <c r="D339" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/bio-peperoni-palermo/p/6647294</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
       <c r="E339" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23727,7 +23725,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -23737,198 +23735,194 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Bio Peperoni Palermo 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>3090881</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Boden Kohlrabi ca. 1kg</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/boden-kohlrabi-ca/p/3090881</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
       </c>
-      <c r="F340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>BEYOND MEAT</t>
+        </is>
+      </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>3.95/1kg</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Boden Kohlrabi ca. 1kg 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6638599</t>
+          <t>3090881</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat</t>
+          <t>Boden Kohlrabi ca. 1kg</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-taboule-salat/p/6638599</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/boden-kohlrabi-ca/p/3090881</t>
         </is>
       </c>
       <c r="D341" t="n">
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>5</v>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2.00/100g</t>
+          <t>3.95/1kg</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Boden Kohlrabi ca. 1kg 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6614732</t>
+          <t>6638599</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Yolo vegan Tatar</t>
+          <t>Betty Bossi Taboulé Salat</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-vegan-tatar/p/6614732</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-taboule-salat/p/6638599</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>2.00/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -23938,7 +23932,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -23948,12 +23942,12 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Yolo vegan Tatar 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Taboulé Salat 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -23963,102 +23957,106 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>3582348</t>
+          <t>6614732</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück</t>
+          <t>Yolo vegan Tatar</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-vegan-tatar/p/6614732</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
       </c>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr"/>
+          <t>Yolo vegan Tatar 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6325173</t>
+          <t>3582348</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
+          <t>Mini Artischocken 4 Stück</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E344" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>Vivera</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">
         <is>
           <t>4.95</t>
@@ -24066,80 +24064,76 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6999612</t>
+          <t>6325173</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat</t>
+          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E345" t="n">
         <v>4.5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24149,7 +24143,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24159,44 +24153,46 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
+          <t>Vivera Vissticks wie Fischstäbchen vegan - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6647294</t>
+          <t>6999612</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Bio Peperoni Palermo</t>
+          <t>Betty Bossi Poulet Currysalat</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/bio-peperoni-palermo/p/6647294</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>4</v>
+      </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -24205,12 +24201,12 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24220,7 +24216,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24230,18 +24226,22 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Bio Peperoni Palermo 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24580,7 +24580,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24649,7 +24649,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24722,7 +24722,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -24795,45 +24795,45 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6133999</t>
+          <t>7024350</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>The Green Mountain plant-based Chunks</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-chunks/p/7024350</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -24853,12 +24853,12 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Chunks 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -24868,45 +24868,45 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>7024350</t>
+          <t>6133999</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Chunks</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-chunks/p/7024350</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E356" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -24916,7 +24916,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -24926,12 +24926,12 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Chunks 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25014,7 +25014,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25233,7 +25233,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25304,7 +25304,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25373,7 +25373,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25446,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25519,7 +25519,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25592,7 +25592,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25665,31 +25665,31 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4160317</t>
+          <t>6115558</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g</t>
+          <t>Naturaplan Bio Poker Salat</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-poker-salat/p/6115558</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E367" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -25698,12 +25698,12 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -25713,7 +25713,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -25723,46 +25723,42 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Poker Salat 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6115558</t>
+          <t>4160317</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Poker Salat</t>
+          <t>Délicorn BBQ Grillsteak 2 x100g</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-poker-salat/p/6115558</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E368" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -25771,12 +25767,12 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -25786,7 +25782,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -25796,18 +25792,22 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Poker Salat 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr"/>
+          <t>Délicorn BBQ Grillsteak 2 x100g 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -25874,31 +25874,29 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6638714</t>
+          <t>6076334</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Délicorn Curry Balls</t>
+          <t>Délicorn Schnitzel mit Käsefüllung</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-curry-balls/p/6638714</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -25912,7 +25910,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -25922,7 +25920,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -25937,17 +25935,17 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Délicorn Curry Balls 6.95 Schweizer Franken</t>
+          <t>Délicorn Schnitzel mit Käsefüllung 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26018,29 +26016,31 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6076334</t>
+          <t>6638714</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung</t>
+          <t>Délicorn Curry Balls</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-curry-balls/p/6638714</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>3</v>
+      </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26064,7 +26064,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26079,17 +26079,17 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung 6.95 Schweizer Franken</t>
+          <t>Délicorn Curry Balls 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26154,7 +26154,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26227,7 +26227,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26298,145 +26298,145 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>3090754</t>
+          <t>6986288</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Pomelo weiss 1 Stück</t>
+          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/pomelo-weiss-1-stueck/p/3090754</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-kichererbsen-suesskartoffeln/p/6986288</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F376" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>3.30/1ST</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Pomelo weiss 1 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr"/>
+          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6986288</t>
+          <t>3090754</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln</t>
+          <t>Pomelo weiss 1 Stück</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-kichererbsen-suesskartoffeln/p/6986288</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/pomelo-weiss-1-stueck/p/3090754</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E377" t="n">
-        <v>4</v>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>3.30/1ST</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pomelo weiss 1 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26505,7 +26505,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26578,7 +26578,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26631,7 +26631,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26769,7 +26769,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26911,7 +26911,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -26976,76 +26976,80 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6073294</t>
+          <t>6774028</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box</t>
+          <t>festivo geräucherte Stick Vegan Chili</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E386" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>6.33/1kg</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr"/>
+          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27110,80 +27114,76 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6774028</t>
+          <t>6073294</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili</t>
+          <t>Naturaplan Bio Kitchen-Classics Box</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E388" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>6.33/1kg</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27256,7 +27256,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27390,7 +27390,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27463,45 +27463,45 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3091369</t>
+          <t>4829868</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Schöni Sauerrüben roh</t>
+          <t>Pro Montagna Bio Berg-Chilischoten</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerrueben-roh/p/3091369</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/pro-montagna-bio-berg-chilischoten/p/4829868</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>82.50/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -27511,7 +27511,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -27521,60 +27521,56 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Schöni Sauerrüben roh 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N393" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Pro Montagna Bio Berg-Chilischoten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6881617</t>
+          <t>3091369</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
+          <t>Schöni Sauerrüben roh</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerrueben-roh/p/3091369</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E394" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -27584,7 +27580,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -27594,46 +27590,46 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
+          <t>Schöni Sauerrüben roh 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>4829868</t>
+          <t>6881617</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Pro Montagna Bio Berg-Chilischoten</t>
+          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/pro-montagna-bio-berg-chilischoten/p/4829868</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E395" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -27642,12 +27638,12 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>82.50/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -27657,7 +27653,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -27667,18 +27663,22 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Pro Montagna Bio Berg-Chilischoten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N395" t="inlineStr"/>
+          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27747,41 +27747,45 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>6525951</t>
+          <t>6362878</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Marroni gekocht</t>
+          <t>Garden Gourmet vegetarischer Burger</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-gekocht/p/6525951</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-vegetarischer-burger/p/6362878</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E397" t="n">
-        <v>1</v>
-      </c>
-      <c r="F397" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>1.49/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -27791,7 +27795,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -27801,56 +27805,56 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Marroni gekocht 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N397" t="inlineStr"/>
+          <t>Garden Gourmet vegetarischer Burger 25% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>6362878</t>
+          <t>6525951</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarischer Burger</t>
+          <t>Marroni gekocht</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-vegetarischer-burger/p/6362878</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-gekocht/p/6525951</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>4</v>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>Garden Gourmet</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.49/100g</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -27860,7 +27864,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -27870,22 +27874,18 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarischer Burger 25% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Marroni gekocht 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -27954,45 +27954,45 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6638726</t>
+          <t>7038142</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
+          <t>Garden Gourmet Crispy Filet</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-salat-pasta-pesto/p/6638726</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>3.13/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28012,60 +28012,60 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.80 Schweizer Franken</t>
+          <t>Garden Gourmet Crispy Filet 25% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>7038142</t>
+          <t>3090601</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E401" t="n">
         <v>4.5</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>3.13/100g</t>
+          <t>0.76/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -28075,7 +28075,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28085,60 +28085,60 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet 25% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>3090601</t>
+          <t>6638726</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-salat-pasta-pesto/p/6638726</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E402" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>0.76/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -28148,7 +28148,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28158,60 +28158,60 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>5773713</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E403" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -28221,7 +28221,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28231,46 +28231,46 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
+          <t>Yolo Filets 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>7038735</t>
+          <t>5773713</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Demeter Kürbis Mandarin</t>
+          <t>Betty Bossi Rotkraut gekocht</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/naturaplan-bio-demeter-kuerbis-mandarin/p/7038735</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -28279,57 +28279,73 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>1.50/100g</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Demeter Kürbis Mandarin 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N404" t="inlineStr"/>
+          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>3091191</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Maniok ca. 1kg</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/maniok/maniok-ca/p/3091191</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E405" t="n">
-        <v>5</v>
-      </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -28337,214 +28353,202 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'maniok']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Maniok ca. 1kg 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6308951</t>
+          <t>7038735</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen</t>
+          <t>Naturaplan Bio Demeter Kürbis Mandarin</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/naturaplan-bio-demeter-kuerbis-mandarin/p/7038735</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E406" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2.78/100g</t>
-        </is>
-      </c>
-      <c r="I406" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J406" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Demeter Kürbis Mandarin 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>3091191</t>
+          <t>7031952</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Maniok ca. 1kg</t>
+          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/maniok/maniok-ca/p/3091191</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
         </is>
       </c>
       <c r="D407" t="n">
+        <v>1</v>
+      </c>
+      <c r="E407" t="n">
         <v>5</v>
       </c>
-      <c r="E407" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'maniok']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Maniok ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N407" t="inlineStr"/>
+          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>6576163</t>
+          <t>6308951</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst vegan</t>
+          <t>Primagusto Wildfeigen</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-vegan/p/6576163</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E408" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -28554,7 +28558,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -28564,60 +28568,56 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst vegan 25% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N408" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>7031952</t>
+          <t>6576163</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
+          <t>Garden Gourmet Sensational Bratwurst vegan</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-vegan/p/6576163</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E409" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -28627,7 +28627,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -28637,22 +28637,22 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Bratwurst vegan 25% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -28721,7 +28721,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -28794,141 +28794,141 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>3090915</t>
+          <t>3090812</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Spargeln grün</t>
+          <t>Erdnüsse</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen/p/3090915</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/erdnuesse/p/3090812</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E412" t="n">
-        <v>4</v>
-      </c>
-      <c r="F412" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>9.95/1kg</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>Spargeln grün 9.95 Schweizer Franken</t>
+          <t>Erdnüsse 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>3090812</t>
+          <t>3090915</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Erdnüsse</t>
+          <t>Spargeln grün</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/erdnuesse/p/3090812</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen/p/3090915</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E413" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>9.95/1kg</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>Erdnüsse 2.95 Schweizer Franken</t>
+          <t>Spargeln grün 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29068,7 +29068,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29137,7 +29137,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29210,7 +29210,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29283,7 +29283,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29348,7 +29348,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29421,7 +29421,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29632,31 +29632,29 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>6862384</t>
+          <t>6693270</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Betty Bossi Suppen Mix</t>
+          <t>Betty Bossi Zitrus Mix</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-suppen-mix/p/6862384</t>
-        </is>
-      </c>
-      <c r="D424" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr"/>
       <c r="E424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -29665,12 +29663,12 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -29680,7 +29678,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -29690,12 +29688,12 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>Betty Bossi Suppen Mix 4.50 Schweizer Franken</t>
+          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -29705,29 +29703,31 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>6693270</t>
+          <t>6862384</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitrus Mix</t>
+          <t>Betty Bossi Suppen Mix</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-suppen-mix/p/6862384</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -29736,12 +29736,12 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -29761,12 +29761,12 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
+          <t>Betty Bossi Suppen Mix 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -29776,7 +29776,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29839,7 +29839,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -29985,7 +29985,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30058,7 +30058,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30131,7 +30131,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30204,7 +30204,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30271,45 +30271,43 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>3062466</t>
+          <t>6622887</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g</t>
+          <t>UMAMI Microgreens Powermix</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
-        </is>
-      </c>
-      <c r="D433" t="n">
-        <v>11</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr"/>
       <c r="E433" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Del Maitre</t>
+          <t>UMAMI</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2.20/100g</t>
+          <t>19.80/100g</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -30319,7 +30317,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -30329,12 +30327,12 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g 17.60 Schweizer Franken</t>
+          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -30344,113 +30342,135 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>7127658</t>
+          <t>7082903</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Primagusto Uuru Bananen ca. 1kg</t>
+          <t>Yolo Cold Meat Slices Pistachio</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/bananen/primagusto-uuru-bananen-ca/p/7127658</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-meat-slices-pistachio/p/7082903</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
       <c r="E434" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>3.60/1kg</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'bananen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>Primagusto Uuru Bananen ca. 1kg 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N434" t="inlineStr"/>
+          <t>Yolo Cold Meat Slices Pistachio 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>6338190</t>
+          <t>3062466</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G</t>
+          <t>Del Maitre Sauerkraut garniert 800g</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E435" t="n">
         <v>4.5</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Del Maitre</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H435" t="inlineStr"/>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2.20/100g</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
@@ -30458,7 +30478,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
+          <t>Del Maitre Sauerkraut garniert 800g 17.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -30468,24 +30488,24 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>6622887</t>
+          <t>7127658</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix</t>
+          <t>Primagusto Uuru Bananen ca. 1kg</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/bananen/primagusto-uuru-bananen-ca/p/7127658</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
@@ -30494,125 +30514,105 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>UMAMI</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>19.80/100g</t>
+          <t>3.60/1kg</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'bananen']</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N436" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Primagusto Uuru Bananen ca. 1kg 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>7082903</t>
+          <t>6338190</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Yolo Cold Meat Slices Pistachio</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-meat-slices-pistachio/p/7082903</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E437" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>4.00/100g</t>
-        </is>
-      </c>
-      <c r="I437" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>Yolo Cold Meat Slices Pistachio 3.20 Schweizer Franken</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30679,7 +30679,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30744,7 +30744,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30817,7 +30817,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30884,7 +30884,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -30957,7 +30957,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31030,7 +31030,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31103,7 +31103,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31176,7 +31176,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31247,7 +31247,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31320,7 +31320,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31393,7 +31393,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31462,7 +31462,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31535,7 +31535,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31604,7 +31604,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31748,7 +31748,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31821,7 +31821,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31888,7 +31888,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -31957,7 +31957,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32095,7 +32095,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32162,7 +32162,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32233,7 +32233,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32306,7 +32306,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32375,7 +32375,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32442,7 +32442,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32513,7 +32513,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32574,7 +32574,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen - Online kein Bestand 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N465" t="inlineStr">
@@ -32584,7 +32584,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32649,7 +32649,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32720,7 +32720,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32789,7 +32789,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
@@ -32854,7 +32854,54 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-09 12:59:12</t>
+          <t>2023-02-09 20:50:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>6830613</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Yasai Koriander</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/yasai-koriander/p/6830613</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>YASAI</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>Yasai Koriander - Online kein Bestand</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr"/>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>2023-02-09 20:50:58</t>
         </is>
       </c>
     </row>
